--- a/inst/data-misc/bank_country_regex_patterns.xlsx
+++ b/inst/data-misc/bank_country_regex_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\My Drive\Carleton\P4\boc_speeches\adam\round2\cbspeeches\inst\data-misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7989968-5B2A-4B80-B089-FDD9AE217CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BC0B4D-7787-4BE7-B217-F755415B7A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6480" yWindow="4620" windowWidth="28800" windowHeight="15345" xr2:uid="{65458FD6-98B5-4D9F-8D73-A080B4A05CD5}"/>
   </bookViews>
@@ -1335,9 +1335,6 @@
     <t>United States'|United States( of America)?|American?|USA?|Federal Reserve( Bank)?|Atlanta|Boston|Chicago|Cleveland|Dallas|Kansas City|Minneapolis|New York|Philadelphia|Richmond|San Francisco|St\\.? Louis|Saint Louis|Board of Governors</t>
   </si>
   <si>
-    <t>Bank of England|England('s)?|English|United Kingdom</t>
-  </si>
-  <si>
     <t>Bank of Japan|Japan('s)?|Japanese</t>
   </si>
   <si>
@@ -1351,6 +1348,9 @@
   </si>
   <si>
     <t>Bank of Canada|Canada('s)?|Canadian</t>
+  </si>
+  <si>
+    <t>Bank of England|England('s)?|English|United Kingdom|UK</t>
   </si>
 </sst>
 </file>
@@ -1723,8 +1723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F8E7C8-9025-49D8-B001-CB76908593F5}">
   <dimension ref="A1:C187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B153" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="B150" workbookViewId="0">
+      <selection activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1993,7 +1993,7 @@
         <v>221</v>
       </c>
       <c r="C32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2212,7 +2212,7 @@
         <v>243</v>
       </c>
       <c r="C59" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -2247,7 +2247,7 @@
         <v>246</v>
       </c>
       <c r="C63" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -2394,7 +2394,7 @@
         <v>263</v>
       </c>
       <c r="C81" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -2421,7 +2421,7 @@
         <v>265</v>
       </c>
       <c r="C84" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -3112,7 +3112,7 @@
         <v>346</v>
       </c>
       <c r="C170" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
